--- a/PS.xlsx
+++ b/PS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Desktop\Nouveau dossier (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6E6AB9-5A86-4349-BDF7-BCB9AA7C51AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747C033-4087-4AA5-B29D-23FEB79D00FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -11326,8 +11326,8 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12009,7 +12009,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15">
         <f>+'1'!E38+'2'!E38+'3'!E38+'4'!E38+'5'!E38+'6'!E38+'7'!E38+'8'!E38+'9'!E38+'10'!E38+'11'!E38+'12'!E38+'13'!E38+'14'!E38+'15'!E38+'16'!E38+'17'!E38+'18'!E38+'19'!E38</f>
@@ -12620,7 +12620,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13231,7 +13231,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -13743,7 +13743,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14354,7 +14354,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -14866,7 +14866,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15477,7 +15477,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -15989,7 +15989,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16598,7 +16598,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -17109,7 +17109,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17720,7 +17720,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -18232,7 +18232,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18843,7 +18843,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -19355,7 +19355,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19966,7 +19966,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -20478,7 +20478,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21089,7 +21089,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -21601,7 +21601,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22212,7 +22212,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -22724,7 +22724,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23335,7 +23335,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -23846,8 +23846,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24458,7 +24458,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -24970,7 +24970,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25578,7 +25578,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -26090,7 +26090,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26701,7 +26701,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -27213,7 +27213,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27824,7 +27824,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -28336,7 +28336,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28945,7 +28945,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -29456,7 +29456,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30067,7 +30067,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -30579,7 +30579,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31190,7 +31190,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -31702,7 +31702,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32313,7 +32313,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -32825,7 +32825,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33436,7 +33436,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -33948,7 +33948,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34559,7 +34559,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -35071,7 +35071,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35682,7 +35682,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -36194,7 +36194,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36805,7 +36805,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -37317,7 +37317,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37925,7 +37925,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -38437,7 +38437,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39048,7 +39048,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -39560,7 +39560,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40171,7 +40171,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -40683,7 +40683,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41294,7 +41294,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -41806,7 +41806,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42415,7 +42415,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -42870,7 +42870,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43481,7 +43481,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -43937,7 +43937,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44548,7 +44548,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -45004,7 +45004,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45615,7 +45615,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -46071,7 +46071,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46682,7 +46682,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -47138,7 +47138,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47749,7 +47749,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -48205,7 +48205,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48816,7 +48816,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -49328,7 +49328,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49939,7 +49939,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -50398,7 +50398,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51006,7 +51006,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -51462,7 +51462,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51583,7 +51583,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -52073,7 +52073,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -52532,7 +52532,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53143,7 +53143,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -53655,7 +53655,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54266,7 +54266,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -54778,7 +54778,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55392,7 +55392,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -55903,7 +55903,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56514,7 +56514,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
@@ -57026,7 +57026,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57637,7 +57637,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="31">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="7">

--- a/PS.xlsx
+++ b/PS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFBED3-F80D-4AA2-A6E6-7C412905DF2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D66FC1D-5F35-4C46-BD1C-9D682A3549C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11359,7 +11359,7 @@
   </sheetPr>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -12240,7 +12240,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="35">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15">
         <f>+'1'!E47+'2'!E47+'3'!E47+'4'!E47+'5'!E47+'6'!E47+'7'!E47+'8'!E47+'9'!E47+'10'!E47+'11'!E47+'12'!E47+'13'!E47+'14'!E47+'15'!E47+'16'!E47+'17'!E47+'18'!E47+'19'!E47</f>
@@ -12262,7 +12262,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="35">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15">
         <f>+'1'!E48+'2'!E48+'3'!E48+'4'!E48+'5'!E48+'6'!E48+'7'!E48+'8'!E48+'9'!E48+'10'!E48+'11'!E48+'12'!E48+'13'!E48+'14'!E48+'15'!E48+'16'!E48+'17'!E48+'18'!E48+'19'!E48</f>
@@ -12284,7 +12284,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="35">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15">
         <f>+'1'!E49+'2'!E49+'3'!E49+'4'!E49+'5'!E49+'6'!E49+'7'!E49+'8'!E49+'9'!E49+'10'!E49+'11'!E49+'12'!E49+'13'!E49+'14'!E49+'15'!E49+'16'!E49+'17'!E49+'18'!E49+'19'!E49</f>
@@ -13633,7 +13633,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -13652,7 +13652,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -13671,7 +13671,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -14930,7 +14930,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -14949,7 +14949,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -14968,7 +14968,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -16227,7 +16227,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -16246,7 +16246,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -16265,7 +16265,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -17522,7 +17522,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -17541,7 +17541,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -17560,7 +17560,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -18818,7 +18818,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -18837,7 +18837,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -18856,7 +18856,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -20115,7 +20115,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -20134,7 +20134,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -20153,7 +20153,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -21412,7 +21412,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -21431,7 +21431,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -21450,7 +21450,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -22709,7 +22709,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -22728,7 +22728,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -22747,7 +22747,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -24006,7 +24006,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -24025,7 +24025,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -24044,7 +24044,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -25303,7 +25303,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -25322,7 +25322,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -25341,7 +25341,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -26600,7 +26600,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -26619,7 +26619,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -26638,7 +26638,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -27894,7 +27894,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -27913,7 +27913,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -27932,7 +27932,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -29191,7 +29191,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -29210,7 +29210,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -29229,7 +29229,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -30488,7 +30488,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -30507,7 +30507,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -30526,7 +30526,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -31783,7 +31783,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -31802,7 +31802,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -31821,7 +31821,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -33079,7 +33079,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -33098,7 +33098,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -33117,7 +33117,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -34376,7 +34376,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -34395,7 +34395,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -34414,7 +34414,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -35673,7 +35673,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -35692,7 +35692,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -35711,7 +35711,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -36970,7 +36970,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -36989,7 +36989,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -37008,7 +37008,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -38267,7 +38267,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -38286,7 +38286,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -38305,7 +38305,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -39564,7 +39564,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -39583,7 +39583,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -39602,7 +39602,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -40861,7 +40861,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -40880,7 +40880,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -40899,7 +40899,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -42155,7 +42155,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -42174,7 +42174,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -42193,7 +42193,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -43452,7 +43452,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -43471,7 +43471,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -43490,7 +43490,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -44749,7 +44749,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -44768,7 +44768,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -44787,7 +44787,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -46046,7 +46046,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -46065,7 +46065,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -46084,7 +46084,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -47341,7 +47341,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -47360,7 +47360,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -47379,7 +47379,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -48581,7 +48581,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -48600,7 +48600,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -48619,7 +48619,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -49822,7 +49822,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -49841,7 +49841,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -49860,7 +49860,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -51063,7 +51063,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -51082,7 +51082,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -51101,7 +51101,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -52304,7 +52304,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -52323,7 +52323,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -52342,7 +52342,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -53545,7 +53545,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -53564,7 +53564,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -53583,7 +53583,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -54786,7 +54786,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -54805,7 +54805,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -54824,7 +54824,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -56083,7 +56083,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -56102,7 +56102,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -56121,7 +56121,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -57321,7 +57321,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -57340,7 +57340,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -57359,7 +57359,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -58562,7 +58562,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -58581,7 +58581,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -58600,7 +58600,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -59803,7 +59803,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -59822,7 +59822,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -59841,7 +59841,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -61100,7 +61100,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -61119,7 +61119,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -61138,7 +61138,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -62400,7 +62400,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -62419,7 +62419,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -62438,7 +62438,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -63696,7 +63696,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -63715,7 +63715,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -63734,7 +63734,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">
@@ -64993,7 +64993,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="31">
-        <v>1195</v>
+        <v>815</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="7">
@@ -65012,7 +65012,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="31">
-        <v>284</v>
+        <v>815</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="7">
@@ -65031,7 +65031,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="31">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="7">

--- a/PS.xlsx
+++ b/PS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D66FC1D-5F35-4C46-BD1C-9D682A3549C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA94F7B-D811-464A-967A-A6B55FAD3FFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11359,8 +11359,8 @@
   </sheetPr>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -11470,7 +11470,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15">
         <f>+'6'!E12+'12'!E12+'8'!E12+'7'!E12+'2'!E12+'5'!E12+'4'!E12+'9'!E12+'1'!E12+'10'!E12+'3'!E12+'11'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12</f>
@@ -11492,7 +11492,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15">
         <f>+'6'!E13+'12'!E13+'8'!E13+'7'!E13+'2'!E13+'5'!E13+'4'!E13+'9'!E13+'1'!E13+'10'!E13+'3'!E13+'11'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13</f>
@@ -12851,7 +12851,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -12968,7 +12968,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -12987,7 +12987,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -14148,7 +14148,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14256,7 +14256,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -14265,7 +14265,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -14284,7 +14284,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -15445,7 +15445,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -15562,7 +15562,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -15581,7 +15581,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -16742,7 +16742,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16848,7 +16848,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -16857,7 +16857,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -16876,7 +16876,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -18036,7 +18036,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -18153,7 +18153,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -18172,7 +18172,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -19333,7 +19333,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19441,7 +19441,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -19450,7 +19450,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -19469,7 +19469,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -20630,7 +20630,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20738,7 +20738,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -20747,7 +20747,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -20766,7 +20766,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -21927,7 +21927,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22035,7 +22035,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -22044,7 +22044,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -22063,7 +22063,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -23224,7 +23224,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23332,7 +23332,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -23341,7 +23341,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -23360,7 +23360,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -24521,7 +24521,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24629,7 +24629,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -24638,7 +24638,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -24657,7 +24657,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -25818,7 +25818,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25926,7 +25926,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -25935,7 +25935,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -25954,7 +25954,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -27115,7 +27115,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27220,7 +27220,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -27229,7 +27229,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -27248,7 +27248,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -28409,7 +28409,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28517,7 +28517,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -28526,7 +28526,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -28545,7 +28545,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -29706,7 +29706,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29814,7 +29814,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -29823,7 +29823,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -29842,7 +29842,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -31003,7 +31003,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31109,7 +31109,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -31118,7 +31118,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -31137,7 +31137,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -32297,7 +32297,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32405,7 +32405,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -32414,7 +32414,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -32433,7 +32433,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -33594,7 +33594,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33702,7 +33702,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -33711,7 +33711,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -33730,7 +33730,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -34891,7 +34891,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34999,7 +34999,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -35008,7 +35008,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -35027,7 +35027,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -36188,7 +36188,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36296,7 +36296,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -36305,7 +36305,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -36324,7 +36324,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -37485,7 +37485,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37593,7 +37593,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -37602,7 +37602,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -37621,7 +37621,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -38782,7 +38782,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38890,7 +38890,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -38899,7 +38899,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -38918,7 +38918,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -40079,7 +40079,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40187,7 +40187,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -40196,7 +40196,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -40215,7 +40215,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -41376,7 +41376,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41481,7 +41481,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -41490,7 +41490,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -41509,7 +41509,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -42670,7 +42670,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42778,7 +42778,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -42787,7 +42787,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -42806,7 +42806,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -43967,7 +43967,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44075,7 +44075,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -44084,7 +44084,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -44103,7 +44103,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -45264,7 +45264,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45372,7 +45372,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -45381,7 +45381,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -45400,7 +45400,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -46561,7 +46561,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46667,7 +46667,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -46676,7 +46676,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -46695,7 +46695,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -47799,7 +47799,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47907,7 +47907,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -47916,7 +47916,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -47935,7 +47935,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -49040,7 +49040,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49148,7 +49148,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -49157,7 +49157,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -49176,7 +49176,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -50281,7 +50281,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50389,7 +50389,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -50398,7 +50398,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -50417,7 +50417,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -51522,7 +51522,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51630,7 +51630,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -51639,7 +51639,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -51658,7 +51658,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -52763,7 +52763,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52871,7 +52871,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -52880,7 +52880,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -52899,7 +52899,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -54004,7 +54004,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54112,7 +54112,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -54121,7 +54121,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -54140,7 +54140,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -55301,7 +55301,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55409,7 +55409,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -55418,7 +55418,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -55437,7 +55437,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -56542,7 +56542,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56647,7 +56647,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -56656,7 +56656,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -56675,7 +56675,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -57780,7 +57780,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57888,7 +57888,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -57897,7 +57897,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -57916,7 +57916,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -59021,7 +59021,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59129,7 +59129,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -59138,7 +59138,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -59157,7 +59157,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -60318,7 +60318,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60426,7 +60426,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -60435,7 +60435,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -60454,7 +60454,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -61615,7 +61615,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61726,7 +61726,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -61735,7 +61735,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -61754,7 +61754,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -62914,7 +62914,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63022,7 +63022,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -63031,7 +63031,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -63050,7 +63050,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
@@ -64211,7 +64211,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64319,7 +64319,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -64328,7 +64328,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
@@ -64347,7 +64347,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">

--- a/PS.xlsx
+++ b/PS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA94F7B-D811-464A-967A-A6B55FAD3FFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C0677-5344-4FF2-8FE1-A73FFE1529E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11359,8 +11359,8 @@
   </sheetPr>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12416,7 +12416,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="35">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15">
         <f>+'1'!E55+'2'!E55+'3'!E55+'4'!E55+'5'!E55+'6'!E55+'7'!E55+'8'!E55+'9'!E55+'10'!E55+'11'!E55+'12'!E55+'13'!E55+'14'!E55+'15'!E55+'16'!E55+'17'!E55+'18'!E55+'19'!E55</f>
@@ -12438,7 +12438,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="35">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15">
         <f>+'1'!E56+'2'!E56+'3'!E56+'4'!E56+'5'!E56+'6'!E56+'7'!E56+'8'!E56+'9'!E56+'10'!E56+'11'!E56+'12'!E56+'13'!E56+'14'!E56+'15'!E56+'16'!E56+'17'!E56+'18'!E56+'19'!E56</f>
@@ -12851,7 +12851,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13785,7 +13785,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -13804,7 +13804,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -14148,7 +14148,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15082,7 +15082,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -15101,7 +15101,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -15445,7 +15445,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16379,7 +16379,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -16398,7 +16398,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -16742,7 +16742,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17674,7 +17674,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -17693,7 +17693,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -18036,7 +18036,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18970,7 +18970,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -18989,7 +18989,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -19333,7 +19333,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20267,7 +20267,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -20286,7 +20286,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -20630,7 +20630,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21564,7 +21564,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -21583,7 +21583,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -21927,7 +21927,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22861,7 +22861,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -22880,7 +22880,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -23224,7 +23224,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24158,7 +24158,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -24177,7 +24177,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -24521,7 +24521,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25455,7 +25455,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -25474,7 +25474,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -25818,7 +25818,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26752,7 +26752,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -26771,7 +26771,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -27115,7 +27115,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28046,7 +28046,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -28065,7 +28065,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -28409,7 +28409,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29343,7 +29343,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -29362,7 +29362,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -29706,7 +29706,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30640,7 +30640,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -30659,7 +30659,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -31003,7 +31003,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31935,7 +31935,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -31954,7 +31954,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -32297,7 +32297,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33231,7 +33231,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -33250,7 +33250,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -33594,7 +33594,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34528,7 +34528,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -34547,7 +34547,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -34891,7 +34891,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35825,7 +35825,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -35844,7 +35844,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -36188,7 +36188,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37122,7 +37122,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -37141,7 +37141,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -37485,7 +37485,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38419,7 +38419,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -38438,7 +38438,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -38782,7 +38782,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39716,7 +39716,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -39735,7 +39735,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -40079,7 +40079,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41013,7 +41013,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -41032,7 +41032,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -41376,7 +41376,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42307,7 +42307,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -42326,7 +42326,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -42670,7 +42670,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43604,7 +43604,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -43623,7 +43623,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -43967,7 +43967,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44901,7 +44901,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -44920,7 +44920,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -45264,7 +45264,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46198,7 +46198,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -46217,7 +46217,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -46561,7 +46561,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47493,7 +47493,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -47512,7 +47512,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -47799,7 +47799,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48733,7 +48733,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -48752,7 +48752,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -49040,7 +49040,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49974,7 +49974,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -49993,7 +49993,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -50281,7 +50281,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51215,7 +51215,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -51234,7 +51234,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -51522,7 +51522,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52456,7 +52456,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -52475,7 +52475,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -52763,7 +52763,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53697,7 +53697,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -53716,7 +53716,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -54004,7 +54004,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54938,7 +54938,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -54957,7 +54957,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -55301,7 +55301,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56235,7 +56235,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -56254,7 +56254,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -56542,7 +56542,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57473,7 +57473,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -57492,7 +57492,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -57780,7 +57780,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58714,7 +58714,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -58733,7 +58733,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -59021,7 +59021,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59955,7 +59955,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -59974,7 +59974,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -60318,7 +60318,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61252,7 +61252,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -61271,7 +61271,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -61615,7 +61615,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62552,7 +62552,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -62571,7 +62571,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -62914,7 +62914,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63848,7 +63848,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -63867,7 +63867,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">
@@ -64211,7 +64211,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65145,7 +65145,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="31">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="7">
@@ -65164,7 +65164,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="31">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="7">

--- a/PS.xlsx
+++ b/PS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\Nouveau dossier (6)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C0677-5344-4FF2-8FE1-A73FFE1529E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B725437D-DBE9-49CE-9F17-44AFD7F58358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -975,7 +975,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -991,14 +991,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1012,14 +1012,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,7 +1053,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11359,8 +11359,8 @@
   </sheetPr>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12350,7 +12350,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="35">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15">
         <f>+'1'!E52+'2'!E52+'3'!E52+'4'!E52+'5'!E52+'6'!E52+'7'!E52+'8'!E52+'9'!E52+'10'!E52+'11'!E52+'12'!E52+'13'!E52+'14'!E52+'15'!E52+'16'!E52+'17'!E52+'18'!E52+'19'!E52</f>
@@ -12851,7 +12851,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13728,7 +13728,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -14148,7 +14148,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15025,7 +15025,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -15445,7 +15445,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16322,7 +16322,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -16742,7 +16742,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17617,7 +17617,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -18036,7 +18036,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18913,7 +18913,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -19333,7 +19333,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20210,7 +20210,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -20630,7 +20630,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21507,7 +21507,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -21927,7 +21927,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22804,7 +22804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -23224,7 +23224,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24101,7 +24101,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -24521,7 +24521,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25398,7 +25398,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -25818,7 +25818,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26695,7 +26695,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -27115,7 +27115,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27989,7 +27989,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -28409,7 +28409,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29286,7 +29286,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -29706,7 +29706,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30583,7 +30583,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -31003,7 +31003,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31878,7 +31878,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -32297,7 +32297,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33174,7 +33174,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -33594,7 +33594,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34471,7 +34471,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -34891,7 +34891,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35768,7 +35768,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -36188,7 +36188,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37065,7 +37065,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -37485,7 +37485,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38362,7 +38362,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -38782,7 +38782,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39659,7 +39659,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -40079,7 +40079,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40956,7 +40956,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -41376,7 +41376,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42250,7 +42250,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -42670,7 +42670,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43547,7 +43547,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -43967,7 +43967,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44844,7 +44844,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -45264,7 +45264,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46141,7 +46141,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -46561,7 +46561,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47436,7 +47436,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -47799,7 +47799,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48676,7 +48676,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -49040,7 +49040,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49917,7 +49917,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -50281,7 +50281,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51158,7 +51158,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -51522,7 +51522,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52399,7 +52399,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -52763,7 +52763,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53640,7 +53640,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -54004,7 +54004,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54881,7 +54881,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -55301,7 +55301,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56178,7 +56178,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -56542,7 +56542,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57416,7 +57416,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -57780,7 +57780,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58657,7 +58657,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -59021,7 +59021,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59898,7 +59898,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -60318,7 +60318,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61195,7 +61195,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -61615,7 +61615,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62495,7 +62495,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -62914,7 +62914,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63791,7 +63791,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
@@ -64211,7 +64211,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65088,7 +65088,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="31">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="7">
